--- a/Docs/Motorrad CANbus.xlsx
+++ b/Docs/Motorrad CANbus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\git\CBFirmware\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7451E1FB-9751-4B3D-942C-6EA3B7B0F428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146DF668-D231-4954-B048-2C5EA45CBB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -4149,7 +4149,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4170,14 +4170,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -4271,7 +4289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4477,6 +4495,8 @@
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4499,10 +4519,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6201,7 +6225,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6823,13 +6847,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="92" t="s">
         <v>343</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="92" t="s">
         <v>344</v>
       </c>
       <c r="D13" s="27" t="s">
@@ -6837,11 +6861,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="89"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="27" t="s">
         <v>346</v>
       </c>
@@ -6954,7 +6978,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="92" t="s">
         <v>354</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -6968,7 +6992,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
+      <c r="A3" s="91"/>
       <c r="B3" s="25" t="s">
         <v>42</v>
       </c>
@@ -6980,14 +7004,14 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="25"/>
       <c r="D4" s="27" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="92" t="s">
         <v>357</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -7001,7 +7025,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="25"/>
       <c r="C6" s="44" t="s">
         <v>359</v>
@@ -7011,7 +7035,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="92" t="s">
         <v>360</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -7025,7 +7049,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="25" t="s">
         <v>45</v>
       </c>
@@ -7037,7 +7061,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="25"/>
       <c r="C9" s="44" t="s">
         <v>363</v>
@@ -7903,33 +7927,33 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
@@ -7971,16 +7995,16 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="87"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="89"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
@@ -8013,18 +8037,18 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="86" t="s">
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="87"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="89"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
@@ -8777,20 +8801,20 @@
       <c r="D9" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="92" t="s">
+      <c r="F9" s="91"/>
+      <c r="G9" s="94" t="s">
         <v>460</v>
       </c>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -9017,7 +9041,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="39"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="94" t="s">
         <v>466</v>
       </c>
       <c r="E15" s="56" t="s">
@@ -9065,7 +9089,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="39"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="89"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="56" t="s">
         <v>468</v>
       </c>
@@ -9173,7 +9197,9 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9368,7 +9394,7 @@
       <c r="B14" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="84" t="s">
         <v>494</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -9382,7 +9408,7 @@
       <c r="B15" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="84" t="s">
         <v>496</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -9491,10 +9517,10 @@
       <c r="A23" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="98" t="s">
         <v>512</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="99" t="s">
         <v>513</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -9505,11 +9531,11 @@
       <c r="A24" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="93" t="s">
+      <c r="C24" s="100"/>
+      <c r="D24" s="83" t="s">
         <v>112</v>
       </c>
     </row>
@@ -10541,7 +10567,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10583,7 +10609,7 @@
       <c r="D2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="83" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10635,13 +10661,13 @@
       <c r="B6" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="83" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="84" t="s">
         <v>91</v>
       </c>
     </row>
@@ -10731,7 +10757,7 @@
       <c r="D12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="84" t="s">
         <v>110</v>
       </c>
     </row>
@@ -10786,7 +10812,7 @@
       <c r="D16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="83" t="s">
         <v>121</v>
       </c>
     </row>
@@ -10831,7 +10857,7 @@
       <c r="D19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="83" t="s">
         <v>128</v>
       </c>
     </row>
@@ -10843,7 +10869,7 @@
         <v>88</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="96" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10905,7 +10931,7 @@
       <c r="D24" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="93" t="s">
+      <c r="E24" s="83" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10938,13 +10964,13 @@
       <c r="B27" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="99" t="s">
         <v>144</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="93" t="s">
+      <c r="E27" s="83" t="s">
         <v>145</v>
       </c>
     </row>
@@ -10979,7 +11005,7 @@
       <c r="B30" s="20"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="94" t="s">
+      <c r="E30" s="97" t="s">
         <v>152</v>
       </c>
     </row>
@@ -11016,7 +11042,7 @@
         <v>156</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="94" t="s">
+      <c r="E33" s="97" t="s">
         <v>157</v>
       </c>
     </row>
@@ -11066,7 +11092,7 @@
         <v>164</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="94" t="s">
+      <c r="E37" s="97" t="s">
         <v>165</v>
       </c>
     </row>
@@ -11135,7 +11161,7 @@
         <v>178</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="93" t="s">
+      <c r="E42" s="96" t="s">
         <v>179</v>
       </c>
     </row>
@@ -11166,7 +11192,7 @@
       <c r="D44" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="93" t="s">
+      <c r="E44" s="96" t="s">
         <v>78</v>
       </c>
     </row>
@@ -13543,7 +13569,9 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29333,7 +29361,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="90" t="s">
         <v>264</v>
       </c>
       <c r="B5" s="34" t="s">
@@ -29347,7 +29375,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="89"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="34" t="s">
         <v>44</v>
       </c>
@@ -29359,7 +29387,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="89"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="34"/>
       <c r="C7" s="36" t="s">
         <v>267</v>
@@ -29736,8 +29764,8 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Docs/Motorrad CANbus.xlsx
+++ b/Docs/Motorrad CANbus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\git\CBFirmware\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146DF668-D231-4954-B048-2C5EA45CBB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089C78C7-26E9-45A7-A8F5-3613AC0CE898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,20 @@
     <sheet name="10C" sheetId="4" r:id="rId3"/>
     <sheet name="Message ID Overview" sheetId="3" r:id="rId4"/>
     <sheet name="10E" sheetId="5" r:id="rId5"/>
-    <sheet name="110" sheetId="6" r:id="rId6"/>
-    <sheet name="120" sheetId="7" r:id="rId7"/>
-    <sheet name="130" sheetId="8" r:id="rId8"/>
-    <sheet name="174" sheetId="9" r:id="rId9"/>
-    <sheet name="178" sheetId="10" r:id="rId10"/>
-    <sheet name="17C" sheetId="11" r:id="rId11"/>
-    <sheet name="290" sheetId="12" r:id="rId12"/>
-    <sheet name="293" sheetId="13" r:id="rId13"/>
-    <sheet name="294" sheetId="14" r:id="rId14"/>
-    <sheet name="298" sheetId="15" r:id="rId15"/>
-    <sheet name="29A" sheetId="16" r:id="rId16"/>
-    <sheet name="29C" sheetId="17" r:id="rId17"/>
-    <sheet name="2A0" sheetId="18" r:id="rId18"/>
-    <sheet name="2A2" sheetId="19" r:id="rId19"/>
+    <sheet name="120" sheetId="7" r:id="rId6"/>
+    <sheet name="130" sheetId="8" r:id="rId7"/>
+    <sheet name="174" sheetId="9" r:id="rId8"/>
+    <sheet name="178" sheetId="10" r:id="rId9"/>
+    <sheet name="17C" sheetId="11" r:id="rId10"/>
+    <sheet name="290" sheetId="12" r:id="rId11"/>
+    <sheet name="293" sheetId="13" r:id="rId12"/>
+    <sheet name="294" sheetId="14" r:id="rId13"/>
+    <sheet name="298" sheetId="15" r:id="rId14"/>
+    <sheet name="29A" sheetId="16" r:id="rId15"/>
+    <sheet name="29C" sheetId="17" r:id="rId16"/>
+    <sheet name="2A0" sheetId="18" r:id="rId17"/>
+    <sheet name="2A2" sheetId="19" r:id="rId18"/>
+    <sheet name="110" sheetId="6" r:id="rId19"/>
     <sheet name="2A4" sheetId="20" r:id="rId20"/>
     <sheet name="2A8" sheetId="21" r:id="rId21"/>
     <sheet name="2AC" sheetId="22" r:id="rId22"/>
@@ -4149,7 +4149,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4195,6 +4195,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -4289,7 +4307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4497,6 +4515,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4519,14 +4545,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5749,7 +5791,7 @@
                     <a:latin typeface="Roboto"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5822,7 +5864,7 @@
                     <a:latin typeface="Roboto"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6225,7 +6267,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6405,154 +6447,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6687,7 +6581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6847,13 +6741,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="98" t="s">
         <v>343</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="98" t="s">
         <v>344</v>
       </c>
       <c r="D13" s="27" t="s">
@@ -6861,11 +6755,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="91"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="91"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="27" t="s">
         <v>346</v>
       </c>
@@ -6947,7 +6841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6978,7 +6872,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="98" t="s">
         <v>354</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -6992,7 +6886,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="25" t="s">
         <v>42</v>
       </c>
@@ -7004,14 +6898,14 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="91"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="25"/>
       <c r="D4" s="27" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="98" t="s">
         <v>357</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -7025,7 +6919,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="25"/>
       <c r="C6" s="44" t="s">
         <v>359</v>
@@ -7035,7 +6929,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="98" t="s">
         <v>360</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -7049,7 +6943,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="91"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="25" t="s">
         <v>45</v>
       </c>
@@ -7061,7 +6955,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="91"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="25"/>
       <c r="C9" s="44" t="s">
         <v>363</v>
@@ -7122,19 +7016,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7204,7 +7101,7 @@
       <c r="C5" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="111" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7232,7 +7129,7 @@
       <c r="C7" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="111" t="s">
         <v>112</v>
       </c>
     </row>
@@ -7253,7 +7150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7283,7 +7180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7409,7 +7306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7518,14 +7415,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7663,7 +7562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7900,6 +7799,190 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="97"/>
+      <c r="B6" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="97"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -7908,7 +7991,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="C9" sqref="C9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7927,33 +8010,33 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
@@ -7995,16 +8078,16 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="89"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
@@ -8037,18 +8120,18 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="88" t="s">
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="89"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="95"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
@@ -8663,7 +8746,9 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8801,20 +8886,20 @@
       <c r="D9" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="94" t="s">
+      <c r="F9" s="97"/>
+      <c r="G9" s="100" t="s">
         <v>460</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -9041,7 +9126,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="39"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="100" t="s">
         <v>466</v>
       </c>
       <c r="E15" s="56" t="s">
@@ -9089,7 +9174,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="39"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="91"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="56" t="s">
         <v>468</v>
       </c>
@@ -9198,7 +9283,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9517,10 +9602,10 @@
       <c r="A23" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="88" t="s">
         <v>512</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="89" t="s">
         <v>513</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -9531,10 +9616,10 @@
       <c r="A24" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="100"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="83" t="s">
         <v>112</v>
       </c>
@@ -9543,13 +9628,13 @@
       <c r="A25" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="88" t="s">
         <v>512</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="89" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9700,7 +9785,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9754,16 +9839,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="89" t="s">
         <v>112</v>
       </c>
     </row>
@@ -9852,16 +9937,16 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="106" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="107" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10567,7 +10652,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10768,7 +10853,7 @@
       <c r="B13" s="20"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="85" t="s">
         <v>112</v>
       </c>
     </row>
@@ -10812,7 +10897,7 @@
       <c r="D16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="84" t="s">
         <v>121</v>
       </c>
     </row>
@@ -10840,7 +10925,7 @@
       <c r="D18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="95" t="s">
+      <c r="E18" s="85" t="s">
         <v>112</v>
       </c>
     </row>
@@ -10869,7 +10954,7 @@
         <v>88</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="E20" s="96" t="s">
+      <c r="E20" s="86" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10931,7 +11016,7 @@
       <c r="D24" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="83" t="s">
+      <c r="E24" s="84" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10964,7 +11049,7 @@
       <c r="B27" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="99" t="s">
+      <c r="C27" s="89" t="s">
         <v>144</v>
       </c>
       <c r="D27" s="18" t="s">
@@ -11005,7 +11090,7 @@
       <c r="B30" s="20"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="97" t="s">
+      <c r="E30" s="87" t="s">
         <v>152</v>
       </c>
     </row>
@@ -11016,7 +11101,7 @@
       <c r="B31" s="20"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="95" t="s">
+      <c r="E31" s="85" t="s">
         <v>112</v>
       </c>
     </row>
@@ -11042,7 +11127,7 @@
         <v>156</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="97" t="s">
+      <c r="E33" s="87" t="s">
         <v>157</v>
       </c>
     </row>
@@ -11092,7 +11177,7 @@
         <v>164</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="97" t="s">
+      <c r="E37" s="111" t="s">
         <v>165</v>
       </c>
     </row>
@@ -11161,7 +11246,7 @@
         <v>178</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="96" t="s">
+      <c r="E42" s="86" t="s">
         <v>179</v>
       </c>
     </row>
@@ -11192,7 +11277,7 @@
       <c r="D44" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="96" t="s">
+      <c r="E44" s="84" t="s">
         <v>78</v>
       </c>
     </row>
@@ -13570,7 +13655,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29291,26 +29376,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="61.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="37" t="s">
         <v>208</v>
       </c>
       <c r="C1" s="15" t="s">
@@ -29320,156 +29405,117 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="27" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" s="35"/>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" s="35" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5" s="34" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="35" t="s">
+      <c r="C4" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="91"/>
-      <c r="B6" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="91"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="D7" s="35" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>276</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:A7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -29613,151 +29659,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -29765,14 +29666,14 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="3" width="69" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" customWidth="1"/>
     <col min="4" max="4" width="61" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29805,16 +29706,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="89" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="89" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="112" t="s">
         <v>294</v>
       </c>
     </row>
@@ -29858,17 +29759,17 @@
       <c r="C7" s="25"/>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:4" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>300</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="103" t="s">
         <v>301</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="104" t="s">
         <v>302</v>
       </c>
     </row>
@@ -29982,10 +29883,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -30130,4 +30032,152 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="4" max="4" width="62.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>